--- a/medicine/Psychotrope/Sobragui/Sobragui.xlsx
+++ b/medicine/Psychotrope/Sobragui/Sobragui.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Sobragui est une entreprise guinéenne qui domine le marché de la bière et demeure aujourd'hui la seule brasserie du pays. Cette entreprise est basée à Conakry où se trouve son siège social (et principal site de production), dans le quartier Madina. Un autre site de production se trouve à Kissidougou, à 601 km de Conakry, en Guinée forestière[1],[2].
+La Sobragui est une entreprise guinéenne qui domine le marché de la bière et demeure aujourd'hui la seule brasserie du pays. Cette entreprise est basée à Conakry où se trouve son siège social (et principal site de production), dans le quartier Madina. Un autre site de production se trouve à Kissidougou, à 601 km de Conakry, en Guinée forestière,.
 </t>
         </is>
       </c>
@@ -512,15 +524,17 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1948 : ouverture de la brasserie par SOBOA Dakar. La bière est brassée au Sénégal et embouteillée en Guinée.
-1958 : la brasserie est nationalisée, au moment de l'arrivée au pouvoir de Sékou Touré[3], et prend le nom de SOBRAGUI. La bière est désormais brassée et embouteillée en Guinée.
-1987 : privatisation, et acquisition par UNIBRA[4].
+1958 : la brasserie est nationalisée, au moment de l'arrivée au pouvoir de Sékou Touré, et prend le nom de SOBRAGUI. La bière est désormais brassée et embouteillée en Guinée.
+1987 : privatisation, et acquisition par UNIBRA.
 1996 : installation de la ligne de boîtes.
 1997 : installation de la ligne de fûts.
 2001 : installation de la seconde ligne de bouteilles.
-2006 : ouverture d'une seconde brasserie à Kissidougou (avec une ligne de bouteilles)[5].
+2006 : ouverture d'une seconde brasserie à Kissidougou (avec une ligne de bouteilles).
 2008 : acquisition par le groupe Castel-BGI.
 2011 : ouverture d’un centre de distribution à Kankan.
 2012 : ouverture d’un centre de distribution à Nzérékoré.
@@ -554,7 +568,9 @@
           <t>Boissons gazeuses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>XXL ENERGY
 TOP ORANGE / TOP COLA / TOP FRUITS ROUGES / TOP TONIC
@@ -586,7 +602,9 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Guiluxe
 Skol
